--- a/dtpu_configurations/only_integer16/50mhz/mxu_7x7/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_7x7/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>19.037593841552734</v>
+        <v>22.067668914794922</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.620689868927002</v>
+        <v>5.896552085876465</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>13.003759384155273</v>
+        <v>14.725564002990723</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>52.142860412597656</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>19.09090805053711</v>
